--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\NGEpUO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="NGEpUO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
   <si>
     <t>coal</t>
   </si>
@@ -180,12 +185,24 @@
   </si>
   <si>
     <t>Assumed to be the same as natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -344,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1267,9 +1287,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1284,7 +1306,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <f>About!B5</f>
@@ -1320,7 +1342,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <f>About!B33</f>
@@ -1379,6 +1401,24 @@
       <c r="B12">
         <f>About!B75</f>
         <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <f>B6</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
